--- a/examples/sources/data/unsolved/to_schedule/2018-12-20.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-12-20.xlsx
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76" s="2">
         <v>43454</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -4266,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" s="2">
         <v>43454</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123">
         <v>1</v>
